--- a/目前版本/總經報告.xlsx
+++ b/目前版本/總經報告.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="總經報告" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="出缺勤" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Meeting record" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -805,4 +807,170 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>-+1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>準時</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>完成任務</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>詠詠</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>遲到</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>未完成任務</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>黃萱</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>未出席</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>未完成任務</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>呂侑蓁</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>遲到</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>未完成任務</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>許庭萱</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>準時</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>無任務</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>陳思羽</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>準時</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>無任務</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Molly</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>準時</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>未完成任務</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>